--- a/Week_7/books_for_assignment5.xlsx
+++ b/Week_7/books_for_assignment5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\00_Applications_DataScience\CUNY\DATA607\DATA607-Class-Repository\Week 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\00_Applications_DataScience\CUNY\DATA607\DATA607-Class-Repository\Week_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DD13E3-C718-4FED-959A-FC95D22C9943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2BE009-00EB-42A0-AE5A-0A1087E80F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,21 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
-    <t>full name</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>dsm</t>
-  </si>
-  <si>
-    <t>rsm</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>When to Walk Away</t>
   </si>
   <si>
@@ -72,6 +57,21 @@
   </si>
   <si>
     <t>Tyndale House Publishers</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>amazon_rank</t>
   </si>
 </sst>
 </file>
@@ -118,12 +118,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -344,7 +347,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -352,36 +355,36 @@
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3">
         <v>2019</v>
@@ -392,13 +395,13 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3">
         <v>2011</v>
@@ -409,13 +412,13 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3">
         <v>1995</v>
@@ -7018,7 +7021,7 @@
     <row r="6596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:E6596" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState ref="A2:R6596">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R6596">
     <sortCondition ref="A2:A6596"/>
     <sortCondition ref="B2:B6596"/>
   </sortState>
